--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Wnt5a</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.068624</v>
+      </c>
+      <c r="H2">
+        <v>0.205872</v>
+      </c>
+      <c r="I2">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J2">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H2">
-        <v>0.194662</v>
-      </c>
-      <c r="I2">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J2">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.047572</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N2">
-        <v>0.142716</v>
+        <v>0.322478</v>
       </c>
       <c r="O2">
-        <v>0.006780712238476237</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P2">
-        <v>0.007303529947359069</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q2">
-        <v>0.003086820221333334</v>
+        <v>0.007376576757333334</v>
       </c>
       <c r="R2">
-        <v>0.027781381992</v>
+        <v>0.06638919081599999</v>
       </c>
       <c r="S2">
-        <v>7.585039860647231E-05</v>
+        <v>0.0002312579560005354</v>
       </c>
       <c r="T2">
-        <v>8.206058064704021E-05</v>
+        <v>0.0002312579560005354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,90 +611,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.461551666666668</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N3">
         <v>16.384655</v>
       </c>
       <c r="O3">
-        <v>0.7784665397132128</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P3">
-        <v>0.838489156574221</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q3">
-        <v>0.3543855235122223</v>
+        <v>0.3747935215733333</v>
       </c>
       <c r="R3">
-        <v>3.189469711610001</v>
+        <v>3.37314169416</v>
       </c>
       <c r="S3">
-        <v>0.008708081874348563</v>
+        <v>0.01174989247351433</v>
       </c>
       <c r="T3">
-        <v>0.009421048116549166</v>
+        <v>0.01174989247351432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>5.659039666666668</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>16.977119</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.5066585</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N4">
-        <v>3.013317</v>
+        <v>0.322478</v>
       </c>
       <c r="O4">
-        <v>0.2147527480483109</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P4">
-        <v>0.15420731347842</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q4">
-        <v>0.097763052309</v>
+        <v>0.6083052645424445</v>
       </c>
       <c r="R4">
-        <v>0.5865783138539999</v>
+        <v>5.474747380882</v>
       </c>
       <c r="S4">
-        <v>0.002402267043404306</v>
+        <v>0.01907055762181285</v>
       </c>
       <c r="T4">
-        <v>0.001732633640892382</v>
+        <v>0.01907055762181285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,350 +723,40 @@
         <v>16.977119</v>
       </c>
       <c r="I5">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J5">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.047572</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N5">
-        <v>0.142716</v>
+        <v>16.384655</v>
       </c>
       <c r="O5">
-        <v>0.006780712238476237</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P5">
-        <v>0.007303529947359069</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q5">
-        <v>0.2692118350226667</v>
+        <v>30.90713752321611</v>
       </c>
       <c r="R5">
-        <v>2.422906515204001</v>
+        <v>278.164237708945</v>
       </c>
       <c r="S5">
-        <v>0.006615164969739932</v>
+        <v>0.9689482919486724</v>
       </c>
       <c r="T5">
-        <v>0.007156775553800427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H6">
-        <v>16.977119</v>
-      </c>
-      <c r="I6">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J6">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.461551666666668</v>
-      </c>
-      <c r="N6">
-        <v>16.384655</v>
-      </c>
-      <c r="O6">
-        <v>0.7784665397132128</v>
-      </c>
-      <c r="P6">
-        <v>0.838489156574221</v>
-      </c>
-      <c r="Q6">
-        <v>30.90713752321612</v>
-      </c>
-      <c r="R6">
-        <v>278.1642377089451</v>
-      </c>
-      <c r="S6">
-        <v>0.7594607177700765</v>
-      </c>
-      <c r="T6">
-        <v>0.8216408697094506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H7">
-        <v>16.977119</v>
-      </c>
-      <c r="I7">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J7">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.5066585</v>
-      </c>
-      <c r="N7">
-        <v>3.013317</v>
-      </c>
-      <c r="O7">
-        <v>0.2147527480483109</v>
-      </c>
-      <c r="P7">
-        <v>0.15420731347842</v>
-      </c>
-      <c r="Q7">
-        <v>8.526240215620501</v>
-      </c>
-      <c r="R7">
-        <v>51.157441293723</v>
-      </c>
-      <c r="S7">
-        <v>0.209509680706317</v>
-      </c>
-      <c r="T7">
-        <v>0.1511087295149194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.153465</v>
-      </c>
-      <c r="I8">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J8">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.047572</v>
-      </c>
-      <c r="N8">
-        <v>0.142716</v>
-      </c>
-      <c r="O8">
-        <v>0.006780712238476237</v>
-      </c>
-      <c r="P8">
-        <v>0.007303529947359069</v>
-      </c>
-      <c r="Q8">
-        <v>0.003650318490000001</v>
-      </c>
-      <c r="R8">
-        <v>0.02190191094000001</v>
-      </c>
-      <c r="S8">
-        <v>8.969687012983227E-05</v>
-      </c>
-      <c r="T8">
-        <v>6.469381291160077E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.153465</v>
-      </c>
-      <c r="I9">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J9">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.461551666666668</v>
-      </c>
-      <c r="N9">
-        <v>16.384655</v>
-      </c>
-      <c r="O9">
-        <v>0.7784665397132128</v>
-      </c>
-      <c r="P9">
-        <v>0.838489156574221</v>
-      </c>
-      <c r="Q9">
-        <v>0.4190785132625001</v>
-      </c>
-      <c r="R9">
-        <v>2.514471079575001</v>
-      </c>
-      <c r="S9">
-        <v>0.01029774006878771</v>
-      </c>
-      <c r="T9">
-        <v>0.007427238748221111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.153465</v>
-      </c>
-      <c r="I10">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J10">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.5066585</v>
-      </c>
-      <c r="N10">
-        <v>3.013317</v>
-      </c>
-      <c r="O10">
-        <v>0.2147527480483109</v>
-      </c>
-      <c r="P10">
-        <v>0.15420731347842</v>
-      </c>
-      <c r="Q10">
-        <v>0.11560967335125</v>
-      </c>
-      <c r="R10">
-        <v>0.462438693405</v>
-      </c>
-      <c r="S10">
-        <v>0.002840800298589672</v>
-      </c>
-      <c r="T10">
-        <v>0.001365950322608159</v>
+        <v>0.9689482919486723</v>
       </c>
     </row>
   </sheetData>
